--- a/data/trans_camb/P6903-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6903-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,64; 5,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 36,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,63; 30,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,13; 14,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,67; 32,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,91; 51,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,21; 3,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 30,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 37,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,5%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,0; 24,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,92; 132,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,45; 109,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,36; 62,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,47; 119,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,31; 210,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,25; 14,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 100,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 128,2</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,07; 1,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 14,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 11,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,71; 17,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 22,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 18,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,26; 4,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 15,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 11,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,33; 8,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 56,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,74; 40,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,48; 68,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 88,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,79; 77,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,12; 18,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 54,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; 40,61</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,7</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,33; 9,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,78; 17,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,39; 25,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,2; 23,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 31,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,99; 34,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,37; 11,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 19,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 25,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,74%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,1; 40,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,25; 78,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,08; 107,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,08; 145,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 194,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,99; 236,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,91; 53,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,45; 93,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,01; 126,07</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,93; -0,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 14,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 10,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 13,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 20,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,17; 19,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,11; 2,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 14,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 13,11</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,36%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,73%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,69; -2,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 49,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,61; 39,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,61; 51,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,88; 78,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,62; 74,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,36; 10,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,85; 49,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,23; 46,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6903-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,69</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>15,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>12,46</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 30,78</t>
+          <t>-9,75; 27,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 51,72</t>
+          <t>-10,14; 47,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 37,21</t>
+          <t>-3,55; 32,59</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,03%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>35,29%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 109,64</t>
+          <t>-26,27; 95,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,31; 210,78</t>
+          <t>-25,89; 190,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 128,2</t>
+          <t>-9,44; 113,19</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>2,57</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 11,14</t>
+          <t>-7,35; 10,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 18,99</t>
+          <t>-14,22; 14,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 11,29</t>
+          <t>-6,89; 9,21</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>8,19%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 40,76</t>
+          <t>-21,19; 37,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 77,36</t>
+          <t>-34,11; 53,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 40,61</t>
+          <t>-19,99; 31,34</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,42</t>
+          <t>21,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,7</t>
+          <t>14,52</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 25,07</t>
+          <t>-9,51; 24,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,99; 34,35</t>
+          <t>5,95; 34,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 25,74</t>
+          <t>4,2; 25,76</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>54,08%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,08; 107,85</t>
+          <t>-26,33; 109,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 236,67</t>
+          <t>15,64; 236,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,01; 126,07</t>
+          <t>11,22; 125,39</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>5,44</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 10,82</t>
+          <t>-4,42; 10,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 19,7</t>
+          <t>-4,07; 16,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 13,11</t>
+          <t>-1,32; 10,93</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>17,36%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 39,69</t>
+          <t>-13,29; 35,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,62; 74,48</t>
+          <t>-9,59; 63,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,23; 46,05</t>
+          <t>-4,19; 38,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6903-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 5,74</t>
+          <t>-23,51; 6,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 36,37</t>
+          <t>2,13; 35,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 27,83</t>
+          <t>-11,23; 29,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 14,96</t>
+          <t>-27,92; 13,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,67; 32,26</t>
+          <t>-24,21; 32,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 47,01</t>
+          <t>-9,57; 46,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 3,84</t>
+          <t>-20,62; 3,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 30,66</t>
+          <t>2,42; 31,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 32,59</t>
+          <t>-3,49; 33,44</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 24,73</t>
+          <t>-60,45; 23,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 132,3</t>
+          <t>4,91; 122,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 95,34</t>
+          <t>-29,82; 98,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 62,47</t>
+          <t>-59,35; 58,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,47; 119,09</t>
+          <t>-51,98; 115,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 190,64</t>
+          <t>-23,83; 185,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,25; 14,02</t>
+          <t>-51,9; 13,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 100,6</t>
+          <t>7,35; 107,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 113,19</t>
+          <t>-8,49; 114,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 1,79</t>
+          <t>-13,99; 2,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 14,83</t>
+          <t>-1,84; 14,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 10,04</t>
+          <t>-6,74; 11,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 17,6</t>
+          <t>-8,34; 16,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 22,75</t>
+          <t>-1,99; 21,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 14,44</t>
+          <t>-15,29; 14,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 4,99</t>
+          <t>-9,42; 4,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 15,1</t>
+          <t>0,4; 14,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 9,21</t>
+          <t>-5,84; 8,9</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 8,55</t>
+          <t>-40,99; 9,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 56,58</t>
+          <t>-5,51; 55,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 37,01</t>
+          <t>-19,31; 41,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 68,39</t>
+          <t>-20,52; 61,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 88,33</t>
+          <t>-5,6; 83,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,11; 53,74</t>
+          <t>-37,76; 50,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 18,06</t>
+          <t>-26,81; 15,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 54,66</t>
+          <t>0,59; 50,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 31,34</t>
+          <t>-17,13; 31,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 9,45</t>
+          <t>-25,89; 7,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 17,15</t>
+          <t>-16,29; 17,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 24,54</t>
+          <t>-9,02; 25,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 23,16</t>
+          <t>-10,99; 24,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 31,43</t>
+          <t>-0,81; 31,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,95; 34,36</t>
+          <t>6,77; 35,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,37; 11,98</t>
+          <t>-14,75; 10,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 19,32</t>
+          <t>-4,07; 18,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 25,76</t>
+          <t>3,17; 25,99</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,1; 40,55</t>
+          <t>-70,52; 37,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,25; 78,97</t>
+          <t>-45,73; 75,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 109,2</t>
+          <t>-26,41; 116,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 145,82</t>
+          <t>-39,2; 166,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 194,77</t>
+          <t>-3,09; 203,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,64; 236,27</t>
+          <t>20,03; 238,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 53,71</t>
+          <t>-46,01; 46,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 93,51</t>
+          <t>-13,16; 85,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,22; 125,39</t>
+          <t>9,77; 124,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,93; -0,6</t>
+          <t>-14,31; -1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 14,16</t>
+          <t>-0,67; 13,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 10,16</t>
+          <t>-4,23; 9,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 13,04</t>
+          <t>-5,4; 12,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 20,53</t>
+          <t>2,1; 19,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 16,82</t>
+          <t>-4,41; 16,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 2,87</t>
+          <t>-8,15; 2,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 14,14</t>
+          <t>2,7; 14,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 10,93</t>
+          <t>-1,06; 10,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,69; -2,24</t>
+          <t>-40,66; -5,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 49,38</t>
+          <t>-1,97; 47,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 35,38</t>
+          <t>-12,49; 33,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 51,28</t>
+          <t>-15,47; 48,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,88; 78,05</t>
+          <t>6,26; 78,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 63,67</t>
+          <t>-11,71; 60,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 10,03</t>
+          <t>-24,25; 9,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,85; 49,07</t>
+          <t>8,2; 48,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 38,02</t>
+          <t>-3,01; 36,21</t>
         </is>
       </c>
     </row>
